--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gnai2-Fpr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gnai2-Fpr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>184.0626906666667</v>
+        <v>63.91118233333333</v>
       </c>
       <c r="H2">
-        <v>552.188072</v>
+        <v>191.733547</v>
       </c>
       <c r="I2">
-        <v>0.6510505751503485</v>
+        <v>0.4067926910433548</v>
       </c>
       <c r="J2">
-        <v>0.6510505751503486</v>
+        <v>0.4067926910433549</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,33 +552,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>20.64694833333333</v>
+        <v>0.1548553333333333</v>
       </c>
       <c r="N2">
-        <v>61.940845</v>
+        <v>0.464566</v>
       </c>
       <c r="O2">
-        <v>0.9736914792326969</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.9736914792326971</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>3800.332864288982</v>
+        <v>9.896987443955776</v>
       </c>
       <c r="R2">
-        <v>34202.99577860084</v>
+        <v>89.07288699560199</v>
       </c>
       <c r="S2">
-        <v>0.6339223975734409</v>
+        <v>0.4067926910433548</v>
       </c>
       <c r="T2">
-        <v>0.6339223975734412</v>
+        <v>0.4067926910433549</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>184.0626906666667</v>
+        <v>57.4434</v>
       </c>
       <c r="H3">
-        <v>552.188072</v>
+        <v>172.3302</v>
       </c>
       <c r="I3">
-        <v>0.6510505751503485</v>
+        <v>0.3656254573230189</v>
       </c>
       <c r="J3">
-        <v>0.6510505751503486</v>
+        <v>0.365625457323019</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,27 +620,27 @@
         <v>0.464566</v>
       </c>
       <c r="O3">
-        <v>0.007302837985843059</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.007302837985843059</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>28.50308931741689</v>
+        <v>8.895416854799999</v>
       </c>
       <c r="R3">
-        <v>256.527803856752</v>
+        <v>80.05875169319999</v>
       </c>
       <c r="S3">
-        <v>0.004754516870912936</v>
+        <v>0.3656254573230189</v>
       </c>
       <c r="T3">
-        <v>0.004754516870912937</v>
+        <v>0.365625457323019</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,418 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>184.0626906666667</v>
+        <v>35.755375</v>
       </c>
       <c r="H4">
-        <v>552.188072</v>
+        <v>107.266125</v>
       </c>
       <c r="I4">
-        <v>0.6510505751503485</v>
+        <v>0.2275818516336261</v>
       </c>
       <c r="J4">
-        <v>0.6510505751503486</v>
+        <v>0.2275818516336262</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.403012</v>
+        <v>0.1548553333333333</v>
       </c>
       <c r="N4">
-        <v>1.209036</v>
+        <v>0.464566</v>
       </c>
       <c r="O4">
-        <v>0.01900568278146</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.01900568278146001</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>74.17947309095466</v>
+        <v>5.536910514083333</v>
       </c>
       <c r="R4">
-        <v>667.615257818592</v>
+        <v>49.83219462675</v>
       </c>
       <c r="S4">
-        <v>0.01237366070599461</v>
+        <v>0.2275818516336261</v>
       </c>
       <c r="T4">
-        <v>0.01237366070599462</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>57.4434</v>
-      </c>
-      <c r="H5">
-        <v>172.3302</v>
-      </c>
-      <c r="I5">
-        <v>0.2031838091312023</v>
-      </c>
-      <c r="J5">
-        <v>0.2031838091312023</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>20.64694833333333</v>
-      </c>
-      <c r="N5">
-        <v>61.940845</v>
-      </c>
-      <c r="O5">
-        <v>0.9736914792326969</v>
-      </c>
-      <c r="P5">
-        <v>0.9736914792326971</v>
-      </c>
-      <c r="Q5">
-        <v>1186.030911891</v>
-      </c>
-      <c r="R5">
-        <v>10674.278207019</v>
-      </c>
-      <c r="S5">
-        <v>0.1978383436690943</v>
-      </c>
-      <c r="T5">
-        <v>0.1978383436690944</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>57.4434</v>
-      </c>
-      <c r="H6">
-        <v>172.3302</v>
-      </c>
-      <c r="I6">
-        <v>0.2031838091312023</v>
-      </c>
-      <c r="J6">
-        <v>0.2031838091312023</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.1548553333333333</v>
-      </c>
-      <c r="N6">
-        <v>0.464566</v>
-      </c>
-      <c r="O6">
-        <v>0.007302837985843059</v>
-      </c>
-      <c r="P6">
-        <v>0.007302837985843059</v>
-      </c>
-      <c r="Q6">
-        <v>8.895416854800001</v>
-      </c>
-      <c r="R6">
-        <v>80.05875169320001</v>
-      </c>
-      <c r="S6">
-        <v>0.00148381843943163</v>
-      </c>
-      <c r="T6">
-        <v>0.00148381843943163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>57.4434</v>
-      </c>
-      <c r="H7">
-        <v>172.3302</v>
-      </c>
-      <c r="I7">
-        <v>0.2031838091312023</v>
-      </c>
-      <c r="J7">
-        <v>0.2031838091312023</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.403012</v>
-      </c>
-      <c r="N7">
-        <v>1.209036</v>
-      </c>
-      <c r="O7">
-        <v>0.01900568278146</v>
-      </c>
-      <c r="P7">
-        <v>0.01900568278146001</v>
-      </c>
-      <c r="Q7">
-        <v>23.1503795208</v>
-      </c>
-      <c r="R7">
-        <v>208.3534156872</v>
-      </c>
-      <c r="S7">
-        <v>0.003861647022676348</v>
-      </c>
-      <c r="T7">
-        <v>0.003861647022676348</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>41.21033366666667</v>
-      </c>
-      <c r="H8">
-        <v>123.631001</v>
-      </c>
-      <c r="I8">
-        <v>0.1457656157184491</v>
-      </c>
-      <c r="J8">
-        <v>0.1457656157184491</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>20.64694833333333</v>
-      </c>
-      <c r="N8">
-        <v>61.940845</v>
-      </c>
-      <c r="O8">
-        <v>0.9736914792326969</v>
-      </c>
-      <c r="P8">
-        <v>0.9736914792326971</v>
-      </c>
-      <c r="Q8">
-        <v>850.8676300150938</v>
-      </c>
-      <c r="R8">
-        <v>7657.808670135845</v>
-      </c>
-      <c r="S8">
-        <v>0.1419307379901616</v>
-      </c>
-      <c r="T8">
-        <v>0.1419307379901616</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>41.21033366666667</v>
-      </c>
-      <c r="H9">
-        <v>123.631001</v>
-      </c>
-      <c r="I9">
-        <v>0.1457656157184491</v>
-      </c>
-      <c r="J9">
-        <v>0.1457656157184491</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.1548553333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.464566</v>
-      </c>
-      <c r="O9">
-        <v>0.007302837985843059</v>
-      </c>
-      <c r="P9">
-        <v>0.007302837985843059</v>
-      </c>
-      <c r="Q9">
-        <v>6.381639956729556</v>
-      </c>
-      <c r="R9">
-        <v>57.434759610566</v>
-      </c>
-      <c r="S9">
-        <v>0.001064502675498492</v>
-      </c>
-      <c r="T9">
-        <v>0.001064502675498493</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>41.21033366666667</v>
-      </c>
-      <c r="H10">
-        <v>123.631001</v>
-      </c>
-      <c r="I10">
-        <v>0.1457656157184491</v>
-      </c>
-      <c r="J10">
-        <v>0.1457656157184491</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.403012</v>
-      </c>
-      <c r="N10">
-        <v>1.209036</v>
-      </c>
-      <c r="O10">
-        <v>0.01900568278146</v>
-      </c>
-      <c r="P10">
-        <v>0.01900568278146001</v>
-      </c>
-      <c r="Q10">
-        <v>16.60825899167067</v>
-      </c>
-      <c r="R10">
-        <v>149.474330925036</v>
-      </c>
-      <c r="S10">
-        <v>0.002770375052789044</v>
-      </c>
-      <c r="T10">
-        <v>0.002770375052789045</v>
+        <v>0.2275818516336262</v>
       </c>
     </row>
   </sheetData>
